--- a/SuppXLS/Scen_AF_SOLAR.xlsx
+++ b/SuppXLS/Scen_AF_SOLAR.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\MSc_SELECT\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\MSc_SELECT_BAD\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B924274D-03FE-4F99-AEA7-67202EBAD1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD2EC3E-C974-4585-9F32-46390EF5CA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -785,13 +785,13 @@
     <t>Row Labels</t>
   </si>
   <si>
-    <t>(blank)</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
     <t>Average of SOLAR</t>
+  </si>
+  <si>
+    <t>Timeslice_YFRF_Raw_Data_ENTSO.xlsx</t>
+  </si>
+  <si>
+    <t>From:</t>
   </si>
 </sst>
 </file>
@@ -2567,13 +2567,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>195262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
@@ -2605,14 +2605,14 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>11430</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>195262</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7114255" cy="219163"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="pole tekstowe 2">
@@ -2834,7 +2834,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="pole tekstowe 2">
@@ -3191,10 +3191,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1260A353-7A00-496A-994F-70A2DA0C8044}">
-  <dimension ref="B2:Y233"/>
+  <dimension ref="B2:V235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3206,14 +3206,13 @@
     <col min="5" max="5" width="32.85546875" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" customWidth="1"/>
-    <col min="9" max="11" width="8.140625" customWidth="1"/>
-    <col min="12" max="13" width="13.140625" customWidth="1"/>
-    <col min="24" max="24" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="9" max="10" width="13.140625" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
         <v>6</v>
       </c>
@@ -3223,7 +3222,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="13" t="s">
         <v>244</v>
       </c>
@@ -3231,14 +3230,8 @@
         <f>AVERAGE(G10:G233)</f>
         <v>0.12076758689022249</v>
       </c>
-      <c r="X3" t="s">
-        <v>248</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="4" spans="2:25" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:22" ht="18" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -3252,14 +3245,8 @@
         <f>MIN(G10:G233)</f>
         <v>0</v>
       </c>
-      <c r="X4" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="13" t="s">
         <v>246</v>
       </c>
@@ -3267,34 +3254,16 @@
         <f>MAX(G10:G233)</f>
         <v>0.57802168822304567</v>
       </c>
-      <c r="X5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y5">
-        <v>8.7403240343137227E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
-      <c r="X6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y6">
-        <v>0.23463057725374178</v>
-      </c>
-    </row>
-    <row r="7" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="X7" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y7">
-        <v>0.51256246626639501</v>
-      </c>
-    </row>
-    <row r="8" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>2</v>
       </c>
@@ -3313,14 +3282,14 @@
       <c r="G8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="X8" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y8">
-        <v>0.45515912202386705</v>
-      </c>
-    </row>
-    <row r="9" spans="2:25" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T8" t="s">
+        <v>251</v>
+      </c>
+      <c r="U8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
@@ -3339,14 +3308,14 @@
       <c r="G9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="X9" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y9">
-        <v>0.19162601573051075</v>
-      </c>
-    </row>
-    <row r="10" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U9" t="s">
+        <v>248</v>
+      </c>
+      <c r="V9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
@@ -3366,17 +3335,17 @@
         <v>0</v>
       </c>
       <c r="H10" s="15"/>
-      <c r="L10" t="s">
+      <c r="I10" t="s">
         <v>16</v>
       </c>
-      <c r="X10" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y10">
-        <v>1.0598756198748801E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U10" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>17</v>
       </c>
@@ -3397,17 +3366,17 @@
         <v>8.7403240343137227E-3</v>
       </c>
       <c r="H11" s="15"/>
-      <c r="L11" t="s">
+      <c r="I11" t="s">
         <v>18</v>
       </c>
-      <c r="X11" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U11" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="V11">
+        <v>8.7403240343137227E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
         <v>19</v>
       </c>
@@ -3428,17 +3397,17 @@
         <v>0.23463057725374178</v>
       </c>
       <c r="H12" s="15"/>
-      <c r="L12" t="s">
+      <c r="I12" t="s">
         <v>20</v>
       </c>
-      <c r="X12" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12">
+        <v>0.23463057725374178</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>21</v>
       </c>
@@ -3459,17 +3428,17 @@
         <v>0.51256246626639501</v>
       </c>
       <c r="H13" s="15"/>
-      <c r="L13" t="s">
+      <c r="I13" t="s">
         <v>22</v>
       </c>
-      <c r="X13" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y13">
-        <v>7.0517581914549795E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U13" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="V13">
+        <v>0.51256246626639501</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>23</v>
       </c>
@@ -3490,14 +3459,14 @@
         <v>0.45515912202386705</v>
       </c>
       <c r="H14" s="15"/>
-      <c r="X14" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y14">
-        <v>0.20360580316383539</v>
-      </c>
-    </row>
-    <row r="15" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U14" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="V14">
+        <v>0.45515912202386705</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>24</v>
       </c>
@@ -3518,14 +3487,14 @@
         <v>0.19162601573051075</v>
       </c>
       <c r="H15" s="15"/>
-      <c r="X15" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y15">
-        <v>0.4398337527959999</v>
-      </c>
-    </row>
-    <row r="16" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U15" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="V15">
+        <v>0.19162601573051075</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>25</v>
       </c>
@@ -3546,14 +3515,14 @@
         <v>1.0598756198748801E-2</v>
       </c>
       <c r="H16" s="15"/>
-      <c r="X16" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y16">
-        <v>0.42391603885049733</v>
-      </c>
-    </row>
-    <row r="17" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U16" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="V16">
+        <v>1.0598756198748801E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
         <v>26</v>
       </c>
@@ -3574,14 +3543,14 @@
         <v>0</v>
       </c>
       <c r="H17" s="15"/>
-      <c r="X17" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y17">
-        <v>0.19152026719133597</v>
-      </c>
-    </row>
-    <row r="18" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U17" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>27</v>
       </c>
@@ -3602,14 +3571,14 @@
         <v>0</v>
       </c>
       <c r="H18" s="15"/>
-      <c r="X18" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y18">
-        <v>1.049104700049203E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U18" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>28</v>
       </c>
@@ -3630,14 +3599,14 @@
         <v>7.0517581914549795E-3</v>
       </c>
       <c r="H19" s="15"/>
-      <c r="X19" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U19" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="V19">
+        <v>7.0517581914549795E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>29</v>
       </c>
@@ -3658,14 +3627,14 @@
         <v>0.20360580316383539</v>
       </c>
       <c r="H20" s="15"/>
-      <c r="X20" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U20" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="V20">
+        <v>0.20360580316383539</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>30</v>
       </c>
@@ -3686,14 +3655,14 @@
         <v>0.4398337527959999</v>
       </c>
       <c r="H21" s="15"/>
-      <c r="X21" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y21">
-        <v>8.2740885401891093E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U21" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="V21">
+        <v>0.4398337527959999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
         <v>31</v>
       </c>
@@ -3714,14 +3683,14 @@
         <v>0.42391603885049733</v>
       </c>
       <c r="H22" s="15"/>
-      <c r="X22" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y22">
-        <v>0.21758300197809083</v>
-      </c>
-    </row>
-    <row r="23" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U22" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="V22">
+        <v>0.42391603885049733</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>32</v>
       </c>
@@ -3742,14 +3711,14 @@
         <v>0.19152026719133597</v>
       </c>
       <c r="H23" s="15"/>
-      <c r="X23" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y23">
-        <v>0.51827361114579207</v>
-      </c>
-    </row>
-    <row r="24" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U23" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="V23">
+        <v>0.19152026719133597</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
         <v>33</v>
       </c>
@@ -3770,14 +3739,14 @@
         <v>1.049104700049203E-2</v>
       </c>
       <c r="H24" s="15"/>
-      <c r="X24" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y24">
-        <v>0.53755245603156021</v>
-      </c>
-    </row>
-    <row r="25" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U24" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="V24">
+        <v>1.049104700049203E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>34</v>
       </c>
@@ -3798,14 +3767,14 @@
         <v>0</v>
       </c>
       <c r="H25" s="15"/>
-      <c r="X25" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y25">
-        <v>0.24837534895847643</v>
-      </c>
-    </row>
-    <row r="26" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U25" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
         <v>35</v>
       </c>
@@ -3826,14 +3795,14 @@
         <v>0</v>
       </c>
       <c r="H26" s="15"/>
-      <c r="X26" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y26">
-        <v>9.0199785621948737E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U26" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>36</v>
       </c>
@@ -3854,14 +3823,14 @@
         <v>8.2740885401891093E-3</v>
       </c>
       <c r="H27" s="15"/>
-      <c r="X27" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U27" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="V27">
+        <v>8.2740885401891093E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
         <v>37</v>
       </c>
@@ -3882,14 +3851,14 @@
         <v>0.21758300197809083</v>
       </c>
       <c r="H28" s="15"/>
-      <c r="X28" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U28" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="V28">
+        <v>0.21758300197809083</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
         <v>38</v>
       </c>
@@ -3910,14 +3879,14 @@
         <v>0.51827361114579207</v>
       </c>
       <c r="H29" s="15"/>
-      <c r="X29" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y29">
-        <v>6.4890449274497336E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U29" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="V29">
+        <v>0.51827361114579207</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="9" t="s">
         <v>39</v>
       </c>
@@ -3938,14 +3907,14 @@
         <v>0.53755245603156021</v>
       </c>
       <c r="H30" s="15"/>
-      <c r="X30" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y30">
-        <v>0.19947429393923619</v>
-      </c>
-    </row>
-    <row r="31" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U30" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="V30">
+        <v>0.53755245603156021</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
         <v>40</v>
       </c>
@@ -3966,14 +3935,14 @@
         <v>0.24837534895847643</v>
       </c>
       <c r="H31" s="15"/>
-      <c r="X31" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y31">
-        <v>0.45863424769713773</v>
-      </c>
-    </row>
-    <row r="32" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U31" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="V31">
+        <v>0.24837534895847643</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
         <v>41</v>
       </c>
@@ -3994,14 +3963,14 @@
         <v>9.0199785621948737E-3</v>
       </c>
       <c r="H32" s="15"/>
-      <c r="X32" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y32">
-        <v>0.5200799266361138</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U32" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="V32">
+        <v>9.0199785621948737E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
         <v>42</v>
       </c>
@@ -4022,14 +3991,14 @@
         <v>0</v>
       </c>
       <c r="H33" s="15"/>
-      <c r="X33" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y33">
-        <v>0.25925509317485917</v>
-      </c>
-    </row>
-    <row r="34" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U33" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="9" t="s">
         <v>43</v>
       </c>
@@ -4050,14 +4019,14 @@
         <v>0</v>
       </c>
       <c r="H34" s="15"/>
-      <c r="X34" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y34">
-        <v>9.4795215646546818E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U34" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
         <v>44</v>
       </c>
@@ -4078,14 +4047,14 @@
         <v>6.4890449274497336E-3</v>
       </c>
       <c r="H35" s="15"/>
-      <c r="X35" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U35" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="V35">
+        <v>6.4890449274497336E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="s">
         <v>45</v>
       </c>
@@ -4106,14 +4075,14 @@
         <v>0.19947429393923619</v>
       </c>
       <c r="H36" s="15"/>
-      <c r="X36" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U36" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="V36">
+        <v>0.19947429393923619</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
         <v>46</v>
       </c>
@@ -4134,14 +4103,14 @@
         <v>0.45863424769713773</v>
       </c>
       <c r="H37" s="15"/>
-      <c r="X37" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y37">
-        <v>8.2249346866683955E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U37" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="V37">
+        <v>0.45863424769713773</v>
+      </c>
+    </row>
+    <row r="38" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
         <v>47</v>
       </c>
@@ -4162,14 +4131,14 @@
         <v>0.5200799266361138</v>
       </c>
       <c r="H38" s="15"/>
-      <c r="X38" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y38">
-        <v>0.25821372528810604</v>
-      </c>
-    </row>
-    <row r="39" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U38" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="V38">
+        <v>0.5200799266361138</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
         <v>48</v>
       </c>
@@ -4190,14 +4159,14 @@
         <v>0.25925509317485917</v>
       </c>
       <c r="H39" s="15"/>
-      <c r="X39" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y39">
-        <v>0.57802168822304567</v>
-      </c>
-    </row>
-    <row r="40" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U39" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="V39">
+        <v>0.25925509317485917</v>
+      </c>
+    </row>
+    <row r="40" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>49</v>
       </c>
@@ -4218,14 +4187,14 @@
         <v>9.4795215646546818E-3</v>
       </c>
       <c r="H40" s="15"/>
-      <c r="X40" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y40">
-        <v>0.54575401744770513</v>
-      </c>
-    </row>
-    <row r="41" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U40" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="V40">
+        <v>9.4795215646546818E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
         <v>50</v>
       </c>
@@ -4246,14 +4215,14 @@
         <v>0</v>
       </c>
       <c r="H41" s="15"/>
-      <c r="X41" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y41">
-        <v>0.24767191304064526</v>
-      </c>
-    </row>
-    <row r="42" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U41" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="9" t="s">
         <v>51</v>
       </c>
@@ -4274,14 +4243,14 @@
         <v>0</v>
       </c>
       <c r="H42" s="15"/>
-      <c r="X42" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y42">
-        <v>9.3744422359461847E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U42" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
         <v>52</v>
       </c>
@@ -4302,14 +4271,14 @@
         <v>8.2249346866683955E-3</v>
       </c>
       <c r="H43" s="15"/>
-      <c r="X43" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U43" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="V43">
+        <v>8.2249346866683955E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="9" t="s">
         <v>53</v>
       </c>
@@ -4330,14 +4299,14 @@
         <v>0.25821372528810604</v>
       </c>
       <c r="H44" s="15"/>
-      <c r="X44" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U44" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="V44">
+        <v>0.25821372528810604</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
         <v>54</v>
       </c>
@@ -4358,14 +4327,14 @@
         <v>0.57802168822304567</v>
       </c>
       <c r="H45" s="15"/>
-      <c r="X45" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y45">
-        <v>8.2045782042351068E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U45" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="V45">
+        <v>0.57802168822304567</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="9" t="s">
         <v>55</v>
       </c>
@@ -4386,14 +4355,14 @@
         <v>0.54575401744770513</v>
       </c>
       <c r="H46" s="15"/>
-      <c r="X46" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y46">
-        <v>0.25819665804425984</v>
-      </c>
-    </row>
-    <row r="47" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U46" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="V46">
+        <v>0.54575401744770513</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="7" t="s">
         <v>56</v>
       </c>
@@ -4414,14 +4383,14 @@
         <v>0.24767191304064526</v>
       </c>
       <c r="H47" s="15"/>
-      <c r="X47" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y47">
-        <v>0.57633751223304919</v>
-      </c>
-    </row>
-    <row r="48" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U47" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="V47">
+        <v>0.24767191304064526</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="9" t="s">
         <v>57</v>
       </c>
@@ -4442,14 +4411,14 @@
         <v>9.3744422359461847E-3</v>
       </c>
       <c r="H48" s="15"/>
-      <c r="X48" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y48">
-        <v>0.52297103202651962</v>
-      </c>
-    </row>
-    <row r="49" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U48" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48">
+        <v>9.3744422359461847E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
         <v>58</v>
       </c>
@@ -4470,14 +4439,14 @@
         <v>0</v>
       </c>
       <c r="H49" s="15"/>
-      <c r="X49" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y49">
-        <v>0.24114281703931056</v>
-      </c>
-    </row>
-    <row r="50" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U49" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
         <v>59</v>
       </c>
@@ -4498,14 +4467,14 @@
         <v>0</v>
       </c>
       <c r="H50" s="15"/>
-      <c r="X50" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y50">
-        <v>1.0267313974669959E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U50" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
         <v>60</v>
       </c>
@@ -4526,14 +4495,14 @@
         <v>8.2045782042351068E-3</v>
       </c>
       <c r="H51" s="15"/>
-      <c r="X51" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U51" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="V51">
+        <v>8.2045782042351068E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="9" t="s">
         <v>61</v>
       </c>
@@ -4554,14 +4523,14 @@
         <v>0.25819665804425984</v>
       </c>
       <c r="H52" s="15"/>
-      <c r="X52" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U52" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="V52">
+        <v>0.25819665804425984</v>
+      </c>
+    </row>
+    <row r="53" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
         <v>62</v>
       </c>
@@ -4582,14 +4551,14 @@
         <v>0.57633751223304919</v>
       </c>
       <c r="H53" s="15"/>
-      <c r="X53" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y53">
-        <v>7.5365614081990273E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U53" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="V53">
+        <v>0.57633751223304919</v>
+      </c>
+    </row>
+    <row r="54" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="9" t="s">
         <v>63</v>
       </c>
@@ -4610,14 +4579,14 @@
         <v>0.52297103202651962</v>
       </c>
       <c r="H54" s="15"/>
-      <c r="X54" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y54">
-        <v>0.22606124365620667</v>
-      </c>
-    </row>
-    <row r="55" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U54" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="V54">
+        <v>0.52297103202651962</v>
+      </c>
+    </row>
+    <row r="55" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
         <v>64</v>
       </c>
@@ -4638,14 +4607,14 @@
         <v>0.24114281703931056</v>
       </c>
       <c r="H55" s="15"/>
-      <c r="X55" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y55">
-        <v>0.54941373021060846</v>
-      </c>
-    </row>
-    <row r="56" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U55" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="V55">
+        <v>0.24114281703931056</v>
+      </c>
+    </row>
+    <row r="56" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="9" t="s">
         <v>65</v>
       </c>
@@ -4666,14 +4635,14 @@
         <v>1.0267313974669959E-2</v>
       </c>
       <c r="H56" s="15"/>
-      <c r="X56" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y56">
-        <v>0.54953924552936761</v>
-      </c>
-    </row>
-    <row r="57" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U56" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="V56">
+        <v>1.0267313974669959E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="7" t="s">
         <v>66</v>
       </c>
@@ -4694,14 +4663,14 @@
         <v>0</v>
       </c>
       <c r="H57" s="15"/>
-      <c r="X57" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y57">
-        <v>0.25520737914787645</v>
-      </c>
-    </row>
-    <row r="58" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U57" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="9" t="s">
         <v>67</v>
       </c>
@@ -4722,14 +4691,14 @@
         <v>0</v>
       </c>
       <c r="H58" s="15"/>
-      <c r="X58" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y58">
-        <v>1.0678412426078305E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U58" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="7" t="s">
         <v>68</v>
       </c>
@@ -4750,14 +4719,14 @@
         <v>7.5365614081990273E-3</v>
       </c>
       <c r="H59" s="15"/>
-      <c r="X59" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U59" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="V59">
+        <v>7.5365614081990273E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="9" t="s">
         <v>69</v>
       </c>
@@ -4778,14 +4747,14 @@
         <v>0.22606124365620667</v>
       </c>
       <c r="H60" s="15"/>
-      <c r="X60" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U60" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="V60">
+        <v>0.22606124365620667</v>
+      </c>
+    </row>
+    <row r="61" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
         <v>70</v>
       </c>
@@ -4806,14 +4775,14 @@
         <v>0.54941373021060846</v>
       </c>
       <c r="H61" s="15"/>
-      <c r="X61" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y61">
-        <v>6.0315441469082094E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U61" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="V61">
+        <v>0.54941373021060846</v>
+      </c>
+    </row>
+    <row r="62" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="9" t="s">
         <v>71</v>
       </c>
@@ -4834,14 +4803,14 @@
         <v>0.54953924552936761</v>
       </c>
       <c r="H62" s="15"/>
-      <c r="X62" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y62">
-        <v>0.22329769081762421</v>
-      </c>
-    </row>
-    <row r="63" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U62" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="V62">
+        <v>0.54953924552936761</v>
+      </c>
+    </row>
+    <row r="63" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="7" t="s">
         <v>72</v>
       </c>
@@ -4862,14 +4831,14 @@
         <v>0.25520737914787645</v>
       </c>
       <c r="H63" s="15"/>
-      <c r="X63" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y63">
-        <v>0.45056772479193258</v>
-      </c>
-    </row>
-    <row r="64" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U63" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="V63">
+        <v>0.25520737914787645</v>
+      </c>
+    </row>
+    <row r="64" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="9" t="s">
         <v>73</v>
       </c>
@@ -4890,14 +4859,14 @@
         <v>1.0678412426078305E-2</v>
       </c>
       <c r="H64" s="15"/>
-      <c r="X64" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y64">
-        <v>0.39238469627435951</v>
-      </c>
-    </row>
-    <row r="65" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U64" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="V64">
+        <v>1.0678412426078305E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="7" t="s">
         <v>74</v>
       </c>
@@ -4918,14 +4887,14 @@
         <v>0</v>
       </c>
       <c r="H65" s="15"/>
-      <c r="X65" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y65">
-        <v>0.18864522174294684</v>
-      </c>
-    </row>
-    <row r="66" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U65" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="9" t="s">
         <v>75</v>
       </c>
@@ -4946,14 +4915,14 @@
         <v>0</v>
       </c>
       <c r="H66" s="15"/>
-      <c r="X66" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y66">
-        <v>1.0751497298587048E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U66" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="7" t="s">
         <v>76</v>
       </c>
@@ -4974,14 +4943,14 @@
         <v>6.0315441469082094E-3</v>
       </c>
       <c r="H67" s="15"/>
-      <c r="X67" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U67" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="V67">
+        <v>6.0315441469082094E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="9" t="s">
         <v>77</v>
       </c>
@@ -5002,14 +4971,14 @@
         <v>0.22329769081762421</v>
       </c>
       <c r="H68" s="15"/>
-      <c r="X68" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U68" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="V68">
+        <v>0.22329769081762421</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
         <v>78</v>
       </c>
@@ -5030,14 +4999,14 @@
         <v>0.45056772479193258</v>
       </c>
       <c r="H69" s="15"/>
-      <c r="X69" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y69">
-        <v>6.4689725734120972E-3</v>
-      </c>
-    </row>
-    <row r="70" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U69" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="V69">
+        <v>0.45056772479193258</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="9" t="s">
         <v>79</v>
       </c>
@@ -5058,14 +5027,14 @@
         <v>0.39238469627435951</v>
       </c>
       <c r="H70" s="15"/>
-      <c r="X70" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y70">
-        <v>0.20636289342361158</v>
-      </c>
-    </row>
-    <row r="71" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U70" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="V70">
+        <v>0.39238469627435951</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="7" t="s">
         <v>80</v>
       </c>
@@ -5086,14 +5055,14 @@
         <v>0.18864522174294684</v>
       </c>
       <c r="H71" s="15"/>
-      <c r="X71" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y71">
-        <v>0.48387402552867076</v>
-      </c>
-    </row>
-    <row r="72" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U71" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="V71">
+        <v>0.18864522174294684</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="9" t="s">
         <v>81</v>
       </c>
@@ -5114,14 +5083,14 @@
         <v>1.0751497298587048E-2</v>
       </c>
       <c r="H72" s="15"/>
-      <c r="X72" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y72">
-        <v>0.48608264942594359</v>
-      </c>
-    </row>
-    <row r="73" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U72" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="V72">
+        <v>1.0751497298587048E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="7" t="s">
         <v>82</v>
       </c>
@@ -5142,14 +5111,14 @@
         <v>0</v>
       </c>
       <c r="H73" s="15"/>
-      <c r="X73" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y73">
-        <v>0.23683481548949681</v>
-      </c>
-    </row>
-    <row r="74" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U73" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="9" t="s">
         <v>83</v>
       </c>
@@ -5170,14 +5139,14 @@
         <v>0</v>
       </c>
       <c r="H74" s="15"/>
-      <c r="X74" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y74">
-        <v>1.1741177829421835E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U74" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="7" t="s">
         <v>84</v>
       </c>
@@ -5198,14 +5167,14 @@
         <v>6.4689725734120972E-3</v>
       </c>
       <c r="H75" s="15"/>
-      <c r="X75" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U75" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="V75">
+        <v>6.4689725734120972E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="9" t="s">
         <v>85</v>
       </c>
@@ -5226,14 +5195,14 @@
         <v>0.20636289342361158</v>
       </c>
       <c r="H76" s="15"/>
-      <c r="X76" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U76" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="V76">
+        <v>0.20636289342361158</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
         <v>86</v>
       </c>
@@ -5254,14 +5223,14 @@
         <v>0.48387402552867076</v>
       </c>
       <c r="H77" s="15"/>
-      <c r="X77" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y77">
-        <v>6.9305792276166244E-3</v>
-      </c>
-    </row>
-    <row r="78" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U77" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="V77">
+        <v>0.48387402552867076</v>
+      </c>
+    </row>
+    <row r="78" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="9" t="s">
         <v>87</v>
       </c>
@@ -5282,14 +5251,14 @@
         <v>0.48608264942594359</v>
       </c>
       <c r="H78" s="15"/>
-      <c r="X78" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y78">
-        <v>0.20248694119527266</v>
-      </c>
-    </row>
-    <row r="79" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U78" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="V78">
+        <v>0.48608264942594359</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="7" t="s">
         <v>88</v>
       </c>
@@ -5310,14 +5279,14 @@
         <v>0.23683481548949681</v>
       </c>
       <c r="H79" s="15"/>
-      <c r="X79" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y79">
-        <v>0.47177624944669744</v>
-      </c>
-    </row>
-    <row r="80" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U79" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="V79">
+        <v>0.23683481548949681</v>
+      </c>
+    </row>
+    <row r="80" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="9" t="s">
         <v>89</v>
       </c>
@@ -5338,14 +5307,14 @@
         <v>1.1741177829421835E-2</v>
       </c>
       <c r="H80" s="15"/>
-      <c r="X80" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y80">
-        <v>0.45574381311392953</v>
-      </c>
-    </row>
-    <row r="81" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U80" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="V80">
+        <v>1.1741177829421835E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="7" t="s">
         <v>90</v>
       </c>
@@ -5366,14 +5335,14 @@
         <v>0</v>
       </c>
       <c r="H81" s="15"/>
-      <c r="X81" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y81">
-        <v>0.20829598360059529</v>
-      </c>
-    </row>
-    <row r="82" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U81" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="9" t="s">
         <v>91</v>
       </c>
@@ -5394,14 +5363,14 @@
         <v>0</v>
       </c>
       <c r="H82" s="15"/>
-      <c r="X82" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y82">
-        <v>1.1107820482400752E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U82" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
         <v>92</v>
       </c>
@@ -5422,14 +5391,14 @@
         <v>6.9305792276166244E-3</v>
       </c>
       <c r="H83" s="15"/>
-      <c r="X83" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U83" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="V83">
+        <v>6.9305792276166244E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="9" t="s">
         <v>93</v>
       </c>
@@ -5450,14 +5419,14 @@
         <v>0.20248694119527266</v>
       </c>
       <c r="H84" s="15"/>
-      <c r="X84" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U84" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="V84">
+        <v>0.20248694119527266</v>
+      </c>
+    </row>
+    <row r="85" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="7" t="s">
         <v>94</v>
       </c>
@@ -5478,14 +5447,14 @@
         <v>0.47177624944669744</v>
       </c>
       <c r="H85" s="15"/>
-      <c r="X85" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y85">
-        <v>5.5156330060405784E-3</v>
-      </c>
-    </row>
-    <row r="86" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U85" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="V85">
+        <v>0.47177624944669744</v>
+      </c>
+    </row>
+    <row r="86" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="9" t="s">
         <v>95</v>
       </c>
@@ -5506,14 +5475,14 @@
         <v>0.45574381311392953</v>
       </c>
       <c r="H86" s="15"/>
-      <c r="X86" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y86">
-        <v>0.2172356638405637</v>
-      </c>
-    </row>
-    <row r="87" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U86" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="V86">
+        <v>0.45574381311392953</v>
+      </c>
+    </row>
+    <row r="87" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="7" t="s">
         <v>96</v>
       </c>
@@ -5534,14 +5503,14 @@
         <v>0.20829598360059529</v>
       </c>
       <c r="H87" s="15"/>
-      <c r="X87" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y87">
-        <v>0.50068436448154729</v>
-      </c>
-    </row>
-    <row r="88" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U87" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="V87">
+        <v>0.20829598360059529</v>
+      </c>
+    </row>
+    <row r="88" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="9" t="s">
         <v>97</v>
       </c>
@@ -5562,14 +5531,14 @@
         <v>1.1107820482400752E-2</v>
       </c>
       <c r="H88" s="15"/>
-      <c r="X88" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y88">
-        <v>0.49865211566802581</v>
-      </c>
-    </row>
-    <row r="89" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U88" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="V88">
+        <v>1.1107820482400752E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
         <v>98</v>
       </c>
@@ -5590,14 +5559,14 @@
         <v>0</v>
       </c>
       <c r="H89" s="15"/>
-      <c r="X89" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y89">
-        <v>0.23098075295947812</v>
-      </c>
-    </row>
-    <row r="90" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U89" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="V89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="9" t="s">
         <v>99</v>
       </c>
@@ -5618,14 +5587,14 @@
         <v>0</v>
       </c>
       <c r="H90" s="15"/>
-      <c r="X90" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y90">
-        <v>1.0578861693930889E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U90" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="V90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="7" t="s">
         <v>100</v>
       </c>
@@ -5646,14 +5615,14 @@
         <v>5.5156330060405784E-3</v>
       </c>
       <c r="H91" s="15"/>
-      <c r="X91" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U91" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="V91">
+        <v>5.5156330060405784E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="9" t="s">
         <v>101</v>
       </c>
@@ -5674,14 +5643,14 @@
         <v>0.2172356638405637</v>
       </c>
       <c r="H92" s="15"/>
-      <c r="X92" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U92" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="V92">
+        <v>0.2172356638405637</v>
+      </c>
+    </row>
+    <row r="93" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="7" t="s">
         <v>102</v>
       </c>
@@ -5702,14 +5671,14 @@
         <v>0.50068436448154729</v>
       </c>
       <c r="H93" s="15"/>
-      <c r="X93" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y93">
-        <v>6.5168337417245521E-3</v>
-      </c>
-    </row>
-    <row r="94" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U93" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="V93">
+        <v>0.50068436448154729</v>
+      </c>
+    </row>
+    <row r="94" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="9" t="s">
         <v>103</v>
       </c>
@@ -5730,14 +5699,14 @@
         <v>0.49865211566802581</v>
       </c>
       <c r="H94" s="15"/>
-      <c r="X94" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y94">
-        <v>0.223453671288115</v>
-      </c>
-    </row>
-    <row r="95" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U94" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="V94">
+        <v>0.49865211566802581</v>
+      </c>
+    </row>
+    <row r="95" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
         <v>104</v>
       </c>
@@ -5758,14 +5727,14 @@
         <v>0.23098075295947812</v>
       </c>
       <c r="H95" s="15"/>
-      <c r="X95" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y95">
-        <v>0.50029017283446209</v>
-      </c>
-    </row>
-    <row r="96" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U95" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="V95">
+        <v>0.23098075295947812</v>
+      </c>
+    </row>
+    <row r="96" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="9" t="s">
         <v>105</v>
       </c>
@@ -5786,14 +5755,14 @@
         <v>1.0578861693930889E-2</v>
       </c>
       <c r="H96" s="15"/>
-      <c r="X96" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y96">
-        <v>0.46263438690474079</v>
-      </c>
-    </row>
-    <row r="97" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U96" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="V96">
+        <v>1.0578861693930889E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
         <v>106</v>
       </c>
@@ -5814,14 +5783,14 @@
         <v>0</v>
       </c>
       <c r="H97" s="15"/>
-      <c r="X97" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y97">
-        <v>0.21727892288870104</v>
-      </c>
-    </row>
-    <row r="98" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U97" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="V97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="9" t="s">
         <v>107</v>
       </c>
@@ -5842,14 +5811,14 @@
         <v>0</v>
       </c>
       <c r="H98" s="15"/>
-      <c r="X98" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y98">
-        <v>1.1473601002514353E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U98" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="V98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="7" t="s">
         <v>108</v>
       </c>
@@ -5870,14 +5839,14 @@
         <v>6.5168337417245521E-3</v>
       </c>
       <c r="H99" s="15"/>
-      <c r="X99" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U99" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="V99">
+        <v>6.5168337417245521E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="9" t="s">
         <v>109</v>
       </c>
@@ -5898,14 +5867,14 @@
         <v>0.223453671288115</v>
       </c>
       <c r="H100" s="15"/>
-      <c r="X100" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U100" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="V100">
+        <v>0.223453671288115</v>
+      </c>
+    </row>
+    <row r="101" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="7" t="s">
         <v>110</v>
       </c>
@@ -5926,14 +5895,14 @@
         <v>0.50029017283446209</v>
       </c>
       <c r="H101" s="15"/>
-      <c r="X101" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y101">
-        <v>6.7932929053513688E-3</v>
-      </c>
-    </row>
-    <row r="102" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U101" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="V101">
+        <v>0.50029017283446209</v>
+      </c>
+    </row>
+    <row r="102" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="9" t="s">
         <v>111</v>
       </c>
@@ -5954,14 +5923,14 @@
         <v>0.46263438690474079</v>
       </c>
       <c r="H102" s="15"/>
-      <c r="X102" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y102">
-        <v>0.17970317053430684</v>
-      </c>
-    </row>
-    <row r="103" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U102" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="V102">
+        <v>0.46263438690474079</v>
+      </c>
+    </row>
+    <row r="103" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="7" t="s">
         <v>112</v>
       </c>
@@ -5982,14 +5951,14 @@
         <v>0.21727892288870104</v>
       </c>
       <c r="H103" s="15"/>
-      <c r="X103" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y103">
-        <v>0.46673306918991431</v>
-      </c>
-    </row>
-    <row r="104" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U103" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="V103">
+        <v>0.21727892288870104</v>
+      </c>
+    </row>
+    <row r="104" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="9" t="s">
         <v>113</v>
       </c>
@@ -6010,14 +5979,14 @@
         <v>1.1473601002514353E-2</v>
       </c>
       <c r="H104" s="15"/>
-      <c r="X104" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y104">
-        <v>0.46238624700685649</v>
-      </c>
-    </row>
-    <row r="105" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U104" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="V104">
+        <v>1.1473601002514353E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="7" t="s">
         <v>114</v>
       </c>
@@ -6038,14 +6007,14 @@
         <v>0</v>
       </c>
       <c r="H105" s="15"/>
-      <c r="X105" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y105">
-        <v>0.2257639093857845</v>
-      </c>
-    </row>
-    <row r="106" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U105" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="V105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="9" t="s">
         <v>115</v>
       </c>
@@ -6066,14 +6035,14 @@
         <v>0</v>
       </c>
       <c r="H106" s="15"/>
-      <c r="X106" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y106">
-        <v>1.3051936509949175E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U106" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="V106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="7" t="s">
         <v>116</v>
       </c>
@@ -6094,14 +6063,14 @@
         <v>6.7932929053513688E-3</v>
       </c>
       <c r="H107" s="15"/>
-      <c r="X107" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U107" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="V107">
+        <v>6.7932929053513688E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="9" t="s">
         <v>117</v>
       </c>
@@ -6122,14 +6091,14 @@
         <v>0.17970317053430684</v>
       </c>
       <c r="H108" s="15"/>
-      <c r="X108" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U108" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="V108">
+        <v>0.17970317053430684</v>
+      </c>
+    </row>
+    <row r="109" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="7" t="s">
         <v>118</v>
       </c>
@@ -6150,14 +6119,14 @@
         <v>0.46673306918991431</v>
       </c>
       <c r="H109" s="15"/>
-      <c r="X109" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y109">
-        <v>6.7148227442200325E-3</v>
-      </c>
-    </row>
-    <row r="110" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U109" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="V109">
+        <v>0.46673306918991431</v>
+      </c>
+    </row>
+    <row r="110" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="9" t="s">
         <v>119</v>
       </c>
@@ -6178,14 +6147,14 @@
         <v>0.46238624700685649</v>
       </c>
       <c r="H110" s="15"/>
-      <c r="X110" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y110">
-        <v>0.21387482400030175</v>
-      </c>
-    </row>
-    <row r="111" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U110" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="V110">
+        <v>0.46238624700685649</v>
+      </c>
+    </row>
+    <row r="111" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="7" t="s">
         <v>120</v>
       </c>
@@ -6206,14 +6175,14 @@
         <v>0.2257639093857845</v>
       </c>
       <c r="H111" s="15"/>
-      <c r="X111" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y111">
-        <v>0.50063741916929327</v>
-      </c>
-    </row>
-    <row r="112" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U111" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="V111">
+        <v>0.2257639093857845</v>
+      </c>
+    </row>
+    <row r="112" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="9" t="s">
         <v>121</v>
       </c>
@@ -6234,14 +6203,14 @@
         <v>1.3051936509949175E-2</v>
       </c>
       <c r="H112" s="15"/>
-      <c r="X112" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y112">
-        <v>0.49691696939426716</v>
-      </c>
-    </row>
-    <row r="113" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U112" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="V112">
+        <v>1.3051936509949175E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="7" t="s">
         <v>122</v>
       </c>
@@ -6262,14 +6231,14 @@
         <v>0</v>
       </c>
       <c r="H113" s="15"/>
-      <c r="X113" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y113">
-        <v>0.23755106502638726</v>
-      </c>
-    </row>
-    <row r="114" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U113" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="V113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="9" t="s">
         <v>123</v>
       </c>
@@ -6290,14 +6259,14 @@
         <v>0</v>
       </c>
       <c r="H114" s="15"/>
-      <c r="X114" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y114">
-        <v>1.1497556109978142E-2</v>
-      </c>
-    </row>
-    <row r="115" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U114" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="V114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="7" t="s">
         <v>124</v>
       </c>
@@ -6318,14 +6287,14 @@
         <v>6.7148227442200325E-3</v>
       </c>
       <c r="H115" s="15"/>
-      <c r="X115" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U115" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="V115">
+        <v>6.7148227442200325E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="9" t="s">
         <v>125</v>
       </c>
@@ -6346,14 +6315,14 @@
         <v>0.21387482400030175</v>
       </c>
       <c r="H116" s="15"/>
-      <c r="X116" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U116" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="V116">
+        <v>0.21387482400030175</v>
+      </c>
+    </row>
+    <row r="117" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="7" t="s">
         <v>126</v>
       </c>
@@ -6374,14 +6343,14 @@
         <v>0.50063741916929327</v>
       </c>
       <c r="H117" s="15"/>
-      <c r="X117" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U117" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="V117">
+        <v>0.50063741916929327</v>
+      </c>
+    </row>
+    <row r="118" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="9" t="s">
         <v>127</v>
       </c>
@@ -6402,14 +6371,14 @@
         <v>0.49691696939426716</v>
       </c>
       <c r="H118" s="15"/>
-      <c r="X118" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y118">
-        <v>4.055027331146499E-2</v>
-      </c>
-    </row>
-    <row r="119" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U118" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="V118">
+        <v>0.49691696939426716</v>
+      </c>
+    </row>
+    <row r="119" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="7" t="s">
         <v>128</v>
       </c>
@@ -6430,14 +6399,14 @@
         <v>0.23755106502638726</v>
       </c>
       <c r="H119" s="15"/>
-      <c r="X119" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y119">
-        <v>0.21996429868220907</v>
-      </c>
-    </row>
-    <row r="120" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U119" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="V119">
+        <v>0.23755106502638726</v>
+      </c>
+    </row>
+    <row r="120" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="9" t="s">
         <v>129</v>
       </c>
@@ -6458,14 +6427,14 @@
         <v>1.1497556109978142E-2</v>
       </c>
       <c r="H120" s="15"/>
-      <c r="X120" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y120">
-        <v>0.20258416383708328</v>
-      </c>
-    </row>
-    <row r="121" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U120" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="V120">
+        <v>1.1497556109978142E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="7" t="s">
         <v>130</v>
       </c>
@@ -6486,14 +6455,14 @@
         <v>0</v>
       </c>
       <c r="H121" s="15"/>
-      <c r="X121" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y121">
-        <v>3.0382252963886344E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U121" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="V121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="9" t="s">
         <v>131</v>
       </c>
@@ -6514,14 +6483,14 @@
         <v>0</v>
       </c>
       <c r="H122" s="15"/>
-      <c r="X122" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U122" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="V122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="7" t="s">
         <v>132</v>
       </c>
@@ -6542,14 +6511,14 @@
         <v>0</v>
       </c>
       <c r="H123" s="15"/>
-      <c r="X123" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U123" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="V123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="9" t="s">
         <v>133</v>
       </c>
@@ -6570,14 +6539,14 @@
         <v>4.055027331146499E-2</v>
       </c>
       <c r="H124" s="15"/>
-      <c r="X124" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U124" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="V124">
+        <v>4.055027331146499E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="7" t="s">
         <v>134</v>
       </c>
@@ -6598,14 +6567,14 @@
         <v>0.21996429868220907</v>
       </c>
       <c r="H125" s="15"/>
-      <c r="X125" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U125" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="V125">
+        <v>0.21996429868220907</v>
+      </c>
+    </row>
+    <row r="126" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="9" t="s">
         <v>135</v>
       </c>
@@ -6626,14 +6595,14 @@
         <v>0.20258416383708328</v>
       </c>
       <c r="H126" s="15"/>
-      <c r="X126" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y126">
-        <v>3.7528881711583792E-2</v>
-      </c>
-    </row>
-    <row r="127" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U126" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="V126">
+        <v>0.20258416383708328</v>
+      </c>
+    </row>
+    <row r="127" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="7" t="s">
         <v>136</v>
       </c>
@@ -6654,14 +6623,14 @@
         <v>3.0382252963886344E-2</v>
       </c>
       <c r="H127" s="15"/>
-      <c r="X127" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y127">
-        <v>0.22330533775707606</v>
-      </c>
-    </row>
-    <row r="128" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U127" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="V127">
+        <v>3.0382252963886344E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="9" t="s">
         <v>137</v>
       </c>
@@ -6682,14 +6651,14 @@
         <v>0</v>
       </c>
       <c r="H128" s="15"/>
-      <c r="X128" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y128">
-        <v>0.19898974899534805</v>
-      </c>
-    </row>
-    <row r="129" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U128" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="V128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="7" t="s">
         <v>138</v>
       </c>
@@ -6710,14 +6679,14 @@
         <v>0</v>
       </c>
       <c r="H129" s="15"/>
-      <c r="X129" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y129">
-        <v>2.4739363218446598E-2</v>
-      </c>
-    </row>
-    <row r="130" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U129" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="V129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="9" t="s">
         <v>139</v>
       </c>
@@ -6738,14 +6707,14 @@
         <v>0</v>
       </c>
       <c r="H130" s="15"/>
-      <c r="X130" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U130" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="V130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="7" t="s">
         <v>140</v>
       </c>
@@ -6766,14 +6735,14 @@
         <v>0</v>
       </c>
       <c r="H131" s="15"/>
-      <c r="X131" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="Y131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U131" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="V131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="9" t="s">
         <v>141</v>
       </c>
@@ -6794,14 +6763,14 @@
         <v>3.7528881711583792E-2</v>
       </c>
       <c r="H132" s="15"/>
-      <c r="X132" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U132" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="V132">
+        <v>3.7528881711583792E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="7" t="s">
         <v>142</v>
       </c>
@@ -6822,14 +6791,14 @@
         <v>0.22330533775707606</v>
       </c>
       <c r="H133" s="15"/>
-      <c r="X133" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U133" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="V133">
+        <v>0.22330533775707606</v>
+      </c>
+    </row>
+    <row r="134" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="9" t="s">
         <v>143</v>
       </c>
@@ -6850,14 +6819,14 @@
         <v>0.19898974899534805</v>
       </c>
       <c r="H134" s="15"/>
-      <c r="X134" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y134">
-        <v>2.7118627436670442E-2</v>
-      </c>
-    </row>
-    <row r="135" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U134" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="V134">
+        <v>0.19898974899534805</v>
+      </c>
+    </row>
+    <row r="135" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="7" t="s">
         <v>144</v>
       </c>
@@ -6878,14 +6847,14 @@
         <v>2.4739363218446598E-2</v>
       </c>
       <c r="H135" s="15"/>
-      <c r="X135" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y135">
-        <v>0.15614830480649994</v>
-      </c>
-    </row>
-    <row r="136" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U135" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="V135">
+        <v>2.4739363218446598E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="9" t="s">
         <v>145</v>
       </c>
@@ -6906,14 +6875,14 @@
         <v>0</v>
       </c>
       <c r="H136" s="15"/>
-      <c r="X136" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y136">
-        <v>0.15222544569382268</v>
-      </c>
-    </row>
-    <row r="137" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U136" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="V136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="7" t="s">
         <v>146</v>
       </c>
@@ -6934,14 +6903,14 @@
         <v>0</v>
       </c>
       <c r="H137" s="15"/>
-      <c r="X137" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="Y137">
-        <v>1.7200517274418459E-2</v>
-      </c>
-    </row>
-    <row r="138" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U137" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="V137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="9" t="s">
         <v>147</v>
       </c>
@@ -6962,14 +6931,14 @@
         <v>0</v>
       </c>
       <c r="H138" s="15"/>
-      <c r="X138" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U138" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="V138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="7" t="s">
         <v>148</v>
       </c>
@@ -6990,14 +6959,14 @@
         <v>0</v>
       </c>
       <c r="H139" s="15"/>
-      <c r="X139" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U139" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="V139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="9" t="s">
         <v>149</v>
       </c>
@@ -7018,14 +6987,14 @@
         <v>2.7118627436670442E-2</v>
       </c>
       <c r="H140" s="15"/>
-      <c r="X140" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U140" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="V140">
+        <v>2.7118627436670442E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="7" t="s">
         <v>150</v>
       </c>
@@ -7046,14 +7015,14 @@
         <v>0.15614830480649994</v>
       </c>
       <c r="H141" s="15"/>
-      <c r="X141" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U141" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="V141">
+        <v>0.15614830480649994</v>
+      </c>
+    </row>
+    <row r="142" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="9" t="s">
         <v>151</v>
       </c>
@@ -7074,14 +7043,14 @@
         <v>0.15222544569382268</v>
       </c>
       <c r="H142" s="15"/>
-      <c r="X142" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y142">
-        <v>3.06614498455152E-2</v>
-      </c>
-    </row>
-    <row r="143" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U142" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="V142">
+        <v>0.15222544569382268</v>
+      </c>
+    </row>
+    <row r="143" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="7" t="s">
         <v>152</v>
       </c>
@@ -7102,14 +7071,14 @@
         <v>1.7200517274418459E-2</v>
       </c>
       <c r="H143" s="15"/>
-      <c r="X143" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y143">
-        <v>0.20069233974295278</v>
-      </c>
-    </row>
-    <row r="144" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U143" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="V143">
+        <v>1.7200517274418459E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="9" t="s">
         <v>153</v>
       </c>
@@ -7130,14 +7099,14 @@
         <v>0</v>
       </c>
       <c r="H144" s="15"/>
-      <c r="X144" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y144">
-        <v>0.16086935134010888</v>
-      </c>
-    </row>
-    <row r="145" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U144" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="V144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="7" t="s">
         <v>154</v>
       </c>
@@ -7158,14 +7127,14 @@
         <v>0</v>
       </c>
       <c r="H145" s="15"/>
-      <c r="X145" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y145">
-        <v>1.7000636492409231E-2</v>
-      </c>
-    </row>
-    <row r="146" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U145" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="V145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="9" t="s">
         <v>155</v>
       </c>
@@ -7186,14 +7155,14 @@
         <v>0</v>
       </c>
       <c r="H146" s="15"/>
-      <c r="X146" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U146" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="V146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="7" t="s">
         <v>156</v>
       </c>
@@ -7214,14 +7183,14 @@
         <v>0</v>
       </c>
       <c r="H147" s="15"/>
-      <c r="X147" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="Y147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U147" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="V147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="9" t="s">
         <v>157</v>
       </c>
@@ -7242,14 +7211,14 @@
         <v>3.06614498455152E-2</v>
       </c>
       <c r="H148" s="15"/>
-      <c r="X148" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="Y148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U148" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="V148">
+        <v>3.06614498455152E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="7" t="s">
         <v>158</v>
       </c>
@@ -7270,14 +7239,14 @@
         <v>0.20069233974295278</v>
       </c>
       <c r="H149" s="15"/>
-      <c r="X149" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="Y149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U149" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="V149">
+        <v>0.20069233974295278</v>
+      </c>
+    </row>
+    <row r="150" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="9" t="s">
         <v>159</v>
       </c>
@@ -7298,14 +7267,14 @@
         <v>0.16086935134010888</v>
       </c>
       <c r="H150" s="15"/>
-      <c r="X150" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y150">
-        <v>3.5915387124529567E-2</v>
-      </c>
-    </row>
-    <row r="151" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U150" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="V150">
+        <v>0.16086935134010888</v>
+      </c>
+    </row>
+    <row r="151" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="7" t="s">
         <v>160</v>
       </c>
@@ -7326,14 +7295,14 @@
         <v>1.7000636492409231E-2</v>
       </c>
       <c r="H151" s="15"/>
-      <c r="X151" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y151">
-        <v>0.20475080163198398</v>
-      </c>
-    </row>
-    <row r="152" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U151" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="V151">
+        <v>1.7000636492409231E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="9" t="s">
         <v>161</v>
       </c>
@@ -7354,14 +7323,14 @@
         <v>0</v>
       </c>
       <c r="H152" s="15"/>
-      <c r="X152" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y152">
-        <v>0.17929382419282328</v>
-      </c>
-    </row>
-    <row r="153" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U152" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="V152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="7" t="s">
         <v>162</v>
       </c>
@@ -7382,14 +7351,14 @@
         <v>0</v>
       </c>
       <c r="H153" s="15"/>
-      <c r="X153" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y153">
-        <v>1.1883913175363945E-2</v>
-      </c>
-    </row>
-    <row r="154" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U153" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="V153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="9" t="s">
         <v>163</v>
       </c>
@@ -7410,14 +7379,14 @@
         <v>0</v>
       </c>
       <c r="H154" s="15"/>
-      <c r="X154" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U154" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="V154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="7" t="s">
         <v>164</v>
       </c>
@@ -7438,14 +7407,14 @@
         <v>0</v>
       </c>
       <c r="H155" s="15"/>
-      <c r="X155" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="Y155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U155" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="V155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="9" t="s">
         <v>165</v>
       </c>
@@ -7466,14 +7435,14 @@
         <v>3.5915387124529567E-2</v>
       </c>
       <c r="H156" s="15"/>
-      <c r="X156" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="Y156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U156" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="V156">
+        <v>3.5915387124529567E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="7" t="s">
         <v>166</v>
       </c>
@@ -7494,14 +7463,14 @@
         <v>0.20475080163198398</v>
       </c>
       <c r="H157" s="15"/>
-      <c r="X157" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U157" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="V157">
+        <v>0.20475080163198398</v>
+      </c>
+    </row>
+    <row r="158" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="9" t="s">
         <v>167</v>
       </c>
@@ -7522,14 +7491,14 @@
         <v>0.17929382419282328</v>
       </c>
       <c r="H158" s="15"/>
-      <c r="X158" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="Y158">
-        <v>3.8268561287185754E-2</v>
-      </c>
-    </row>
-    <row r="159" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U158" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="V158">
+        <v>0.17929382419282328</v>
+      </c>
+    </row>
+    <row r="159" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="7" t="s">
         <v>168</v>
       </c>
@@ -7550,14 +7519,14 @@
         <v>1.1883913175363945E-2</v>
       </c>
       <c r="H159" s="15"/>
-      <c r="X159" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="Y159">
-        <v>0.1764920793435005</v>
-      </c>
-    </row>
-    <row r="160" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U159" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="V159">
+        <v>1.1883913175363945E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="9" t="s">
         <v>169</v>
       </c>
@@ -7578,14 +7547,14 @@
         <v>0</v>
       </c>
       <c r="H160" s="15"/>
-      <c r="X160" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y160">
-        <v>0.17602894255385684</v>
-      </c>
-    </row>
-    <row r="161" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U160" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="V160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="7" t="s">
         <v>170</v>
       </c>
@@ -7606,14 +7575,14 @@
         <v>0</v>
       </c>
       <c r="H161" s="15"/>
-      <c r="X161" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="Y161">
-        <v>2.60798595411471E-2</v>
-      </c>
-    </row>
-    <row r="162" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U161" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="V161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="9" t="s">
         <v>171</v>
       </c>
@@ -7634,14 +7603,14 @@
         <v>0</v>
       </c>
       <c r="H162" s="15"/>
-      <c r="X162" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="Y162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U162" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="V162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="7" t="s">
         <v>172</v>
       </c>
@@ -7662,14 +7631,14 @@
         <v>0</v>
       </c>
       <c r="H163" s="15"/>
-      <c r="X163" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="Y163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U163" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="V163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="9" t="s">
         <v>173</v>
       </c>
@@ -7690,14 +7659,14 @@
         <v>3.8268561287185754E-2</v>
       </c>
       <c r="H164" s="15"/>
-      <c r="X164" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U164" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="V164">
+        <v>3.8268561287185754E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="7" t="s">
         <v>174</v>
       </c>
@@ -7718,14 +7687,14 @@
         <v>0.1764920793435005</v>
       </c>
       <c r="H165" s="15"/>
-      <c r="X165" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U165" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="V165">
+        <v>0.1764920793435005</v>
+      </c>
+    </row>
+    <row r="166" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="9" t="s">
         <v>175</v>
       </c>
@@ -7746,14 +7715,14 @@
         <v>0.17602894255385684</v>
       </c>
       <c r="H166" s="15"/>
-      <c r="X166" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="Y166">
-        <v>2.9891873235833793E-2</v>
-      </c>
-    </row>
-    <row r="167" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U166" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="V166">
+        <v>0.17602894255385684</v>
+      </c>
+    </row>
+    <row r="167" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="7" t="s">
         <v>176</v>
       </c>
@@ -7774,14 +7743,14 @@
         <v>2.60798595411471E-2</v>
       </c>
       <c r="H167" s="15"/>
-      <c r="X167" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="Y167">
-        <v>0.22269859961242497</v>
-      </c>
-    </row>
-    <row r="168" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U167" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="V167">
+        <v>2.60798595411471E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="9" t="s">
         <v>177</v>
       </c>
@@ -7802,14 +7771,14 @@
         <v>0</v>
       </c>
       <c r="H168" s="15"/>
-      <c r="X168" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="Y168">
-        <v>0.20642416724364743</v>
-      </c>
-    </row>
-    <row r="169" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U168" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="V168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="7" t="s">
         <v>178</v>
       </c>
@@ -7830,14 +7799,14 @@
         <v>0</v>
       </c>
       <c r="H169" s="15"/>
-      <c r="X169" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y169">
-        <v>2.1691358837674091E-2</v>
-      </c>
-    </row>
-    <row r="170" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U169" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="V169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="9" t="s">
         <v>179</v>
       </c>
@@ -7858,14 +7827,14 @@
         <v>0</v>
       </c>
       <c r="H170" s="15"/>
-      <c r="X170" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="Y170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U170" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="V170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="7" t="s">
         <v>180</v>
       </c>
@@ -7886,14 +7855,14 @@
         <v>0</v>
       </c>
       <c r="H171" s="15"/>
-      <c r="X171" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U171" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="V171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="9" t="s">
         <v>181</v>
       </c>
@@ -7914,14 +7883,14 @@
         <v>2.9891873235833793E-2</v>
       </c>
       <c r="H172" s="15"/>
-      <c r="X172" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U172" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="V172">
+        <v>2.9891873235833793E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="7" t="s">
         <v>182</v>
       </c>
@@ -7942,14 +7911,14 @@
         <v>0.22269859961242497</v>
       </c>
       <c r="H173" s="15"/>
-      <c r="X173" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U173" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="V173">
+        <v>0.22269859961242497</v>
+      </c>
+    </row>
+    <row r="174" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="9" t="s">
         <v>183</v>
       </c>
@@ -7970,14 +7939,14 @@
         <v>0.20642416724364743</v>
       </c>
       <c r="H174" s="15"/>
-      <c r="X174" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="Y174">
-        <v>1.6330893727622475E-2</v>
-      </c>
-    </row>
-    <row r="175" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U174" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="V174">
+        <v>0.20642416724364743</v>
+      </c>
+    </row>
+    <row r="175" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="7" t="s">
         <v>184</v>
       </c>
@@ -7998,14 +7967,14 @@
         <v>2.1691358837674091E-2</v>
       </c>
       <c r="H175" s="15"/>
-      <c r="X175" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="Y175">
-        <v>0.15240884162541249</v>
-      </c>
-    </row>
-    <row r="176" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U175" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="V175">
+        <v>2.1691358837674091E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="9" t="s">
         <v>185</v>
       </c>
@@ -8026,14 +7995,14 @@
         <v>0</v>
       </c>
       <c r="H176" s="15"/>
-      <c r="X176" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y176">
-        <v>0.19993472238382992</v>
-      </c>
-    </row>
-    <row r="177" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U176" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="V176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="7" t="s">
         <v>186</v>
       </c>
@@ -8054,14 +8023,14 @@
         <v>0</v>
       </c>
       <c r="H177" s="15"/>
-      <c r="X177" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="Y177">
-        <v>3.8488595654195691E-2</v>
-      </c>
-    </row>
-    <row r="178" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U177" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="V177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="9" t="s">
         <v>187</v>
       </c>
@@ -8082,14 +8051,14 @@
         <v>0</v>
       </c>
       <c r="H178" s="15"/>
-      <c r="X178" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="Y178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U178" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="V178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="7" t="s">
         <v>188</v>
       </c>
@@ -8110,14 +8079,14 @@
         <v>0</v>
       </c>
       <c r="H179" s="15"/>
-      <c r="X179" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="Y179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U179" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="V179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="9" t="s">
         <v>189</v>
       </c>
@@ -8138,14 +8107,14 @@
         <v>1.6330893727622475E-2</v>
       </c>
       <c r="H180" s="15"/>
-      <c r="X180" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="Y180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U180" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="V180">
+        <v>1.6330893727622475E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="7" t="s">
         <v>190</v>
       </c>
@@ -8166,14 +8135,14 @@
         <v>0.15240884162541249</v>
       </c>
       <c r="H181" s="15"/>
-      <c r="X181" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="Y181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U181" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="V181">
+        <v>0.15240884162541249</v>
+      </c>
+    </row>
+    <row r="182" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="9" t="s">
         <v>191</v>
       </c>
@@ -8194,14 +8163,14 @@
         <v>0.19993472238382992</v>
       </c>
       <c r="H182" s="15"/>
-      <c r="X182" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y182">
-        <v>1.8581042307386886E-2</v>
-      </c>
-    </row>
-    <row r="183" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U182" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="V182">
+        <v>0.19993472238382992</v>
+      </c>
+    </row>
+    <row r="183" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="7" t="s">
         <v>192</v>
       </c>
@@ -8222,14 +8191,14 @@
         <v>3.8488595654195691E-2</v>
       </c>
       <c r="H183" s="15"/>
-      <c r="X183" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y183">
-        <v>0.19189469662680128</v>
-      </c>
-    </row>
-    <row r="184" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U183" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="V183">
+        <v>3.8488595654195691E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="9" t="s">
         <v>193</v>
       </c>
@@ -8250,14 +8219,14 @@
         <v>0</v>
       </c>
       <c r="H184" s="15"/>
-      <c r="X184" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="Y184">
-        <v>0.25983967726319968</v>
-      </c>
-    </row>
-    <row r="185" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U184" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="V184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="7" t="s">
         <v>194</v>
       </c>
@@ -8278,14 +8247,14 @@
         <v>0</v>
       </c>
       <c r="H185" s="15"/>
-      <c r="X185" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y185">
-        <v>4.5265846222098005E-2</v>
-      </c>
-    </row>
-    <row r="186" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U185" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="V185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="9" t="s">
         <v>195</v>
       </c>
@@ -8306,14 +8275,14 @@
         <v>0</v>
       </c>
       <c r="H186" s="15"/>
-      <c r="X186" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="Y186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U186" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="V186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="7" t="s">
         <v>196</v>
       </c>
@@ -8334,14 +8303,14 @@
         <v>0</v>
       </c>
       <c r="H187" s="15"/>
-      <c r="X187" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="Y187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U187" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="V187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="9" t="s">
         <v>197</v>
       </c>
@@ -8362,14 +8331,14 @@
         <v>1.8581042307386886E-2</v>
       </c>
       <c r="H188" s="15"/>
-      <c r="X188" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="Y188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U188" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="V188">
+        <v>1.8581042307386886E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="7" t="s">
         <v>198</v>
       </c>
@@ -8390,14 +8359,14 @@
         <v>0.19189469662680128</v>
       </c>
       <c r="H189" s="15"/>
-      <c r="X189" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="Y189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U189" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="V189">
+        <v>0.19189469662680128</v>
+      </c>
+    </row>
+    <row r="190" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="9" t="s">
         <v>199</v>
       </c>
@@ -8418,14 +8387,14 @@
         <v>0.25983967726319968</v>
       </c>
       <c r="H190" s="15"/>
-      <c r="X190" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="Y190">
-        <v>1.9475498597270758E-2</v>
-      </c>
-    </row>
-    <row r="191" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U190" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="V190">
+        <v>0.25983967726319968</v>
+      </c>
+    </row>
+    <row r="191" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="7" t="s">
         <v>200</v>
       </c>
@@ -8446,14 +8415,14 @@
         <v>4.5265846222098005E-2</v>
       </c>
       <c r="H191" s="15"/>
-      <c r="X191" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="Y191">
-        <v>0.20605119189154208</v>
-      </c>
-    </row>
-    <row r="192" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U191" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="V191">
+        <v>4.5265846222098005E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="9" t="s">
         <v>201</v>
       </c>
@@ -8474,14 +8443,14 @@
         <v>0</v>
       </c>
       <c r="H192" s="15"/>
-      <c r="X192" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="Y192">
-        <v>0.21520715642337732</v>
-      </c>
-    </row>
-    <row r="193" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U192" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="V192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="7" t="s">
         <v>202</v>
       </c>
@@ -8502,14 +8471,14 @@
         <v>0</v>
       </c>
       <c r="H193" s="15"/>
-      <c r="X193" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="Y193">
-        <v>5.3397075764417476E-2</v>
-      </c>
-    </row>
-    <row r="194" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U193" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="V193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="9" t="s">
         <v>203</v>
       </c>
@@ -8530,14 +8499,14 @@
         <v>0</v>
       </c>
       <c r="H194" s="15"/>
-      <c r="X194" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U194" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="V194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="7" t="s">
         <v>204</v>
       </c>
@@ -8558,14 +8527,14 @@
         <v>0</v>
       </c>
       <c r="H195" s="15"/>
-      <c r="X195" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="Y195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U195" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="V195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="9" t="s">
         <v>205</v>
       </c>
@@ -8586,14 +8555,14 @@
         <v>1.9475498597270758E-2</v>
       </c>
       <c r="H196" s="15"/>
-      <c r="X196" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U196" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="V196">
+        <v>1.9475498597270758E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="7" t="s">
         <v>206</v>
       </c>
@@ -8614,14 +8583,14 @@
         <v>0.20605119189154208</v>
       </c>
       <c r="H197" s="15"/>
-      <c r="X197" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U197" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="V197">
+        <v>0.20605119189154208</v>
+      </c>
+    </row>
+    <row r="198" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="9" t="s">
         <v>207</v>
       </c>
@@ -8642,14 +8611,14 @@
         <v>0.21520715642337732</v>
       </c>
       <c r="H198" s="15"/>
-      <c r="X198" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y198">
-        <v>2.7300792694862297E-2</v>
-      </c>
-    </row>
-    <row r="199" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U198" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="V198">
+        <v>0.21520715642337732</v>
+      </c>
+    </row>
+    <row r="199" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="7" t="s">
         <v>208</v>
       </c>
@@ -8670,14 +8639,14 @@
         <v>5.3397075764417476E-2</v>
       </c>
       <c r="H199" s="15"/>
-      <c r="X199" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="Y199">
-        <v>0.21413023985002855</v>
-      </c>
-    </row>
-    <row r="200" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U199" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="V199">
+        <v>5.3397075764417476E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="9" t="s">
         <v>209</v>
       </c>
@@ -8698,14 +8667,14 @@
         <v>0</v>
       </c>
       <c r="H200" s="15"/>
-      <c r="X200" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="Y200">
-        <v>0.23821434049396478</v>
-      </c>
-    </row>
-    <row r="201" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U200" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="V200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="7" t="s">
         <v>210</v>
       </c>
@@ -8726,14 +8695,14 @@
         <v>0</v>
       </c>
       <c r="H201" s="15"/>
-      <c r="X201" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y201">
-        <v>5.2271200622605214E-2</v>
-      </c>
-    </row>
-    <row r="202" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U201" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="V201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="9" t="s">
         <v>211</v>
       </c>
@@ -8754,14 +8723,14 @@
         <v>0</v>
       </c>
       <c r="H202" s="15"/>
-      <c r="X202" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="Y202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U202" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="V202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="7" t="s">
         <v>212</v>
       </c>
@@ -8782,14 +8751,14 @@
         <v>0</v>
       </c>
       <c r="H203" s="15"/>
-      <c r="X203" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U203" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="V203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="9" t="s">
         <v>213</v>
       </c>
@@ -8810,14 +8779,14 @@
         <v>2.7300792694862297E-2</v>
       </c>
       <c r="H204" s="15"/>
-      <c r="X204" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="Y204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U204" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="V204">
+        <v>2.7300792694862297E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="7" t="s">
         <v>214</v>
       </c>
@@ -8838,14 +8807,14 @@
         <v>0.21413023985002855</v>
       </c>
       <c r="H205" s="15"/>
-      <c r="X205" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U205" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="V205">
+        <v>0.21413023985002855</v>
+      </c>
+    </row>
+    <row r="206" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="9" t="s">
         <v>215</v>
       </c>
@@ -8866,14 +8835,14 @@
         <v>0.23821434049396478</v>
       </c>
       <c r="H206" s="15"/>
-      <c r="X206" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="Y206">
-        <v>2.3575521462117669E-2</v>
-      </c>
-    </row>
-    <row r="207" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U206" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="V206">
+        <v>0.23821434049396478</v>
+      </c>
+    </row>
+    <row r="207" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="7" t="s">
         <v>216</v>
       </c>
@@ -8894,14 +8863,14 @@
         <v>5.2271200622605214E-2</v>
       </c>
       <c r="H207" s="15"/>
-      <c r="X207" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="Y207">
-        <v>0.2099569915123381</v>
-      </c>
-    </row>
-    <row r="208" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U207" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="V207">
+        <v>5.2271200622605214E-2</v>
+      </c>
+    </row>
+    <row r="208" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="9" t="s">
         <v>217</v>
       </c>
@@ -8922,14 +8891,14 @@
         <v>0</v>
       </c>
       <c r="H208" s="15"/>
-      <c r="X208" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="Y208">
-        <v>0.21402436584029808</v>
-      </c>
-    </row>
-    <row r="209" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U208" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="V208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="7" t="s">
         <v>218</v>
       </c>
@@ -8950,14 +8919,14 @@
         <v>0</v>
       </c>
       <c r="H209" s="15"/>
-      <c r="X209" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y209">
-        <v>4.8556288757658772E-2</v>
-      </c>
-    </row>
-    <row r="210" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U209" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="V209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="9" t="s">
         <v>219</v>
       </c>
@@ -8978,14 +8947,14 @@
         <v>0</v>
       </c>
       <c r="H210" s="15"/>
-      <c r="X210" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="Y210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U210" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="V210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="7" t="s">
         <v>220</v>
       </c>
@@ -9006,14 +8975,14 @@
         <v>0</v>
       </c>
       <c r="H211" s="15"/>
-      <c r="X211" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="Y211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U211" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="V211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="9" t="s">
         <v>221</v>
       </c>
@@ -9034,14 +9003,14 @@
         <v>2.3575521462117669E-2</v>
       </c>
       <c r="H212" s="15"/>
-      <c r="X212" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="Y212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U212" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="V212">
+        <v>2.3575521462117669E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="7" t="s">
         <v>222</v>
       </c>
@@ -9062,14 +9031,14 @@
         <v>0.2099569915123381</v>
       </c>
       <c r="H213" s="15"/>
-      <c r="X213" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="Y213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U213" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="V213">
+        <v>0.2099569915123381</v>
+      </c>
+    </row>
+    <row r="214" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="9" t="s">
         <v>223</v>
       </c>
@@ -9090,14 +9059,14 @@
         <v>0.21402436584029808</v>
       </c>
       <c r="H214" s="15"/>
-      <c r="X214" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="Y214">
-        <v>3.0743740941453171E-2</v>
-      </c>
-    </row>
-    <row r="215" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U214" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="V214">
+        <v>0.21402436584029808</v>
+      </c>
+    </row>
+    <row r="215" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="7" t="s">
         <v>224</v>
       </c>
@@ -9118,14 +9087,14 @@
         <v>4.8556288757658772E-2</v>
       </c>
       <c r="H215" s="15"/>
-      <c r="X215" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="Y215">
-        <v>0.28109630235803607</v>
-      </c>
-    </row>
-    <row r="216" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U215" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="V215">
+        <v>4.8556288757658772E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="9" t="s">
         <v>225</v>
       </c>
@@ -9146,14 +9115,14 @@
         <v>0</v>
       </c>
       <c r="H216" s="15"/>
-      <c r="X216" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="Y216">
-        <v>0.30190943817987337</v>
-      </c>
-    </row>
-    <row r="217" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U216" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="V216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="7" t="s">
         <v>226</v>
       </c>
@@ -9174,14 +9143,14 @@
         <v>0</v>
       </c>
       <c r="H217" s="15"/>
-      <c r="X217" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="Y217">
-        <v>6.9053709535046928E-2</v>
-      </c>
-    </row>
-    <row r="218" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U217" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="V217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="9" t="s">
         <v>227</v>
       </c>
@@ -9202,14 +9171,14 @@
         <v>0</v>
       </c>
       <c r="H218" s="15"/>
-      <c r="X218" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="Y218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U218" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="V218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="7" t="s">
         <v>228</v>
       </c>
@@ -9230,14 +9199,14 @@
         <v>0</v>
       </c>
       <c r="H219" s="15"/>
-      <c r="X219" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="Y219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U219" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="V219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="9" t="s">
         <v>229</v>
       </c>
@@ -9258,14 +9227,14 @@
         <v>3.0743740941453171E-2</v>
       </c>
       <c r="H220" s="15"/>
-      <c r="X220" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="Y220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U220" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="V220">
+        <v>3.0743740941453171E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="7" t="s">
         <v>230</v>
       </c>
@@ -9286,14 +9255,14 @@
         <v>0.28109630235803607</v>
       </c>
       <c r="H221" s="15"/>
-      <c r="X221" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="Y221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U221" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="V221">
+        <v>0.28109630235803607</v>
+      </c>
+    </row>
+    <row r="222" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="9" t="s">
         <v>231</v>
       </c>
@@ -9314,14 +9283,14 @@
         <v>0.30190943817987337</v>
       </c>
       <c r="H222" s="15"/>
-      <c r="X222" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y222">
-        <v>2.8955621343482899E-2</v>
-      </c>
-    </row>
-    <row r="223" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U222" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="V222">
+        <v>0.30190943817987337</v>
+      </c>
+    </row>
+    <row r="223" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="7" t="s">
         <v>232</v>
       </c>
@@ -9342,14 +9311,14 @@
         <v>6.9053709535046928E-2</v>
       </c>
       <c r="H223" s="15"/>
-      <c r="X223" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="Y223">
-        <v>0.2159359844524292</v>
-      </c>
-    </row>
-    <row r="224" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U223" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="V223">
+        <v>6.9053709535046928E-2</v>
+      </c>
+    </row>
+    <row r="224" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="9" t="s">
         <v>233</v>
       </c>
@@ -9370,14 +9339,14 @@
         <v>0</v>
       </c>
       <c r="H224" s="15"/>
-      <c r="X224" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="Y224">
-        <v>0.24667399942360071</v>
-      </c>
-    </row>
-    <row r="225" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U224" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="V224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="7" t="s">
         <v>234</v>
       </c>
@@ -9398,14 +9367,14 @@
         <v>0</v>
       </c>
       <c r="H225" s="15"/>
-      <c r="X225" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="Y225">
-        <v>5.1938021190096197E-2</v>
-      </c>
-    </row>
-    <row r="226" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U225" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="V225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="9" t="s">
         <v>235</v>
       </c>
@@ -9426,14 +9395,14 @@
         <v>0</v>
       </c>
       <c r="H226" s="15"/>
-      <c r="X226" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="Y226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U226" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="V226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="7" t="s">
         <v>236</v>
       </c>
@@ -9454,14 +9423,14 @@
         <v>0</v>
       </c>
       <c r="H227" s="15"/>
-      <c r="X227" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="Y227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U227" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="V227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="9" t="s">
         <v>237</v>
       </c>
@@ -9482,11 +9451,14 @@
         <v>2.8955621343482899E-2</v>
       </c>
       <c r="H228" s="15"/>
-      <c r="X228" s="15" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="229" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U228" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="V228">
+        <v>2.8955621343482899E-2</v>
+      </c>
+    </row>
+    <row r="229" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="7" t="s">
         <v>238</v>
       </c>
@@ -9507,14 +9479,14 @@
         <v>0.2159359844524292</v>
       </c>
       <c r="H229" s="15"/>
-      <c r="X229" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="Y229">
-        <v>0.12195080542556425</v>
-      </c>
-    </row>
-    <row r="230" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U229" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="V229">
+        <v>0.2159359844524292</v>
+      </c>
+    </row>
+    <row r="230" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="9" t="s">
         <v>239</v>
       </c>
@@ -9535,8 +9507,14 @@
         <v>0.24667399942360071</v>
       </c>
       <c r="H230" s="15"/>
-    </row>
-    <row r="231" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U230" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="V230">
+        <v>0.24667399942360071</v>
+      </c>
+    </row>
+    <row r="231" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="7" t="s">
         <v>240</v>
       </c>
@@ -9557,8 +9535,14 @@
         <v>5.1938021190096197E-2</v>
       </c>
       <c r="H231" s="15"/>
-    </row>
-    <row r="232" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U231" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="V231">
+        <v>5.1938021190096197E-2</v>
+      </c>
+    </row>
+    <row r="232" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="9" t="s">
         <v>241</v>
       </c>
@@ -9579,8 +9563,14 @@
         <v>0</v>
       </c>
       <c r="H232" s="15"/>
-    </row>
-    <row r="233" spans="2:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U232" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="V232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="2:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B233" s="10" t="s">
         <v>242</v>
       </c>
@@ -9590,17 +9580,29 @@
       <c r="D233" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E233" s="8" t="str">
+      <c r="E233" s="10" t="str">
         <f t="shared" si="3"/>
         <v>2023,2025,2030,2035,2040,2045,2050</v>
       </c>
       <c r="F233" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G233">
+      <c r="G233" s="10">
         <v>0</v>
       </c>
       <c r="H233" s="15"/>
+      <c r="U233" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="V233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="U234" s="15"/>
+    </row>
+    <row r="235" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="U235" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9609,6 +9611,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1ada55d1baadc38a59b37f146ad1da21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6148ddbe210b331c9edc42bf7e0f90a" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
@@ -9752,22 +9769,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF1DAA58-FAE3-45B9-9E11-80CEEB4D9194}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FD0B336-FFC1-4D47-AE67-60EF052A00DD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFBBCED0-FF93-4267-8A19-633E4C121859}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9783,21 +9802,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF1DAA58-FAE3-45B9-9E11-80CEEB4D9194}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FD0B336-FFC1-4D47-AE67-60EF052A00DD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>